--- a/rancangan tabel.xlsx
+++ b/rancangan tabel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\nando\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\nando\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DA5327-BEB0-4814-85AA-94B66DBC2A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E617EA-FEDE-4AC2-BCB5-50C7637C5D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{AA0BF7D9-9C9E-4579-A4B7-7FBBFFEF3276}"/>
   </bookViews>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9710122D-88A9-4EE5-BACD-A06FED2F1D47}">
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1126,7 +1126,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
